--- a/Frameworks/Excel/twoD.xlsx
+++ b/Frameworks/Excel/twoD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\FrameWork\Frameworks\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484447B5-4FBB-48C7-BE5F-FA8E428CB79A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC0CF3F-C8E5-4FC3-BEDA-F25B16D4017F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{44658B76-B83E-4010-97A3-BB665FD8E8B0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>pittu</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Enter</t>
+  </si>
+  <si>
+    <t>kkk</t>
+  </si>
+  <si>
+    <t>ppp</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,6 +454,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -455,6 +464,9 @@
       </c>
       <c r="B4">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
